--- a/çıktılar/kod-istatistiği.xlsx
+++ b/çıktılar/kod-istatistiği.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\burakkanmaz\yuksek-lisans-tez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\burakkanmaz\yuksek-lisans-tez\çıktılar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381E3421-C36E-494C-8C46-26534D0C0AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5EE61-227D-4858-A83B-03D9AA27B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{683D3A6E-7284-4D7F-BB2D-15E81498CE0D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="67">
   <si>
     <t>CWE</t>
   </si>
@@ -233,6 +233,12 @@
   <si>
     <t>Sum of Total</t>
   </si>
+  <si>
+    <t>Yüzdelik</t>
+  </si>
+  <si>
+    <t>Kod Satır Sayısı</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +564,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -735,7 +747,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -761,6 +773,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -807,27 +829,144 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="187">
     <dxf>
-      <alignment horizontal="general"/>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -842,16 +981,16 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <border>
@@ -995,6 +1134,21 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1133,6 +1287,24 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1269,6 +1441,501 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1520,6 +2187,297 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6061,7 +7019,566 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3AEB33B-2BC8-4BB8-9711-432B8A40D936}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C53B6B74-04B8-4B85-89C7-F9E772DCB867}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:G28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="33">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="32" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="175">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="174">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="173">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="172">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="171">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="170">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="169">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="168">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="167">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="166">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea field="1" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="101">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="9">
+    <conditionalFormat priority="27">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="26">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="25">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="24">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="23">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="22">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="21">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="20">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="19">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3AEB33B-2BC8-4BB8-9711-432B8A40D936}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:O28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField axis="axisCol" showAll="0">
@@ -6245,36 +7762,36 @@
   <dataFields count="1">
     <dataField name="Sum of Total" fld="32" showDataAs="percentOfTotal" baseField="1" baseItem="22" numFmtId="10"/>
   </dataFields>
-  <formats count="11">
-    <format dxfId="24">
+  <formats count="15">
+    <format dxfId="186">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="185">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="184">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="180">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="179">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="178">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6283,57 +7800,44 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="100">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="99">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="98">
+      <pivotArea field="1" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
   </formats>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="25">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="24"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
+  <conditionalFormats count="9">
+    <conditionalFormat priority="15">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -6378,302 +7882,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C53B6B74-04B8-4B85-89C7-F9E772DCB867}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:G28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="33">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="4"/>
-        <item x="24"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total" fld="32" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="32">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="6">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="25">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="24"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
+    <conditionalFormat priority="14">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -6718,7 +7927,202 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="13">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="12">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="11">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="10">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="25">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -6750,41 +8154,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1A465F4-4364-4C86-BA0B-805D9F072F98}" name="Table1" displayName="Table1" ref="A1:AG127" totalsRowCount="1" headerRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1A465F4-4364-4C86-BA0B-805D9F072F98}" name="Table1" displayName="Table1" ref="A1:AG127" totalsRowCount="1" headerRowDxfId="165">
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{0368783E-60B5-446E-8E4F-71A4F6BA80C2}" name="YZ Adı" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{5FDE52DC-85DC-4D7A-9524-E748513BC9BB}" name="CWE"/>
-    <tableColumn id="3" xr3:uid="{5DBBEE5F-10E9-420D-8145-D7C4AE394D90}" name="Senaryo 1 CSharp" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{D01828B2-10AE-454E-9346-9631728D8F85}" name="Senaryo 1 Python" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{154F2D2C-1A28-493F-A547-3F6362C45315}" name="Senaryo 1 TypeScript" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{5E1CE77B-BADB-4D61-B035-13A5E168B429}" name="Senaryo 2 CSharp" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{0D8A2999-56EE-4820-B7EA-57A856DE61A2}" name="Senaryo 2 Python" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{644F7313-F022-4192-B384-867EA0EB2BD8}" name="Senaryo 2 TypeScript" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{4727F928-F4B3-4621-8515-A69B649118FF}" name="Senaryo 3 CSharp" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{2632B23A-4015-4C9C-B989-F86B5A9133CD}" name="Senaryo 3 Python" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{33DB39AE-3D1F-4A8D-93CE-0DDE5AD3A4FD}" name="Senaryo 3 TypeScript" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{CAE73F09-7165-4F81-8429-A8705F63424E}" name="Senaryo 4 CSharp" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{8F1295CF-2223-47E4-A825-C16C73255581}" name="Senaryo 4 Python" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{216BE4D0-480E-47E4-B053-61E942B45F3C}" name="Senaryo 4 TypeScript" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{2F6591D1-1890-4DB8-9579-7F2FBE9CF215}" name="Senaryo 5 CSharp" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="16" xr3:uid="{303B2371-15E9-4D62-B0AD-0041E4D1BF8F}" name="Senaryo 5 Python" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{76EC7216-AAAE-4FB7-8AB9-B8B581090BE7}" name="Senaryo 5 TypeScript" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="18" xr3:uid="{313282F2-5FBF-4AAD-B876-C8BAE071FCFF}" name="Senaryo 6 CSharp" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="19" xr3:uid="{34A93617-D9B6-4DC3-A79C-88211B864488}" name="Senaryo 6 Python" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="20" xr3:uid="{F6BFD7DC-D08D-4B1F-9C25-50703CF6387B}" name="Senaryo 6 TypeScript" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="21" xr3:uid="{F0A4F85B-4694-41D9-AFE6-8229F20010A7}" name="Senaryo 7 CSharp" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="22" xr3:uid="{0F055718-AF6F-4571-BCDD-A76428DBE19C}" name="Senaryo 7 Python" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="23" xr3:uid="{2836C9A2-BA4B-434E-9085-711BF04E821A}" name="Senaryo 7 TypeScript" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="24" xr3:uid="{20B3BAF8-63D7-467B-A575-3C0398474301}" name="Senaryo 8 CSharp" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="25" xr3:uid="{5B3CFE21-2B51-49DD-A5D8-3C814537ABF1}" name="Senaryo 8 Python" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="26" xr3:uid="{B48691A8-E21D-4C86-8780-3A006F5403F7}" name="Senaryo 8 TypeScript" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="27" xr3:uid="{1C1A41F5-4799-4152-9C01-BFA54E8194B1}" name="Senaryo 9 CSharp" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="28" xr3:uid="{01DA7305-2CBA-40D9-99D2-1CF7D514950D}" name="Senaryo 9 Python" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="29" xr3:uid="{FEF8B27E-DF22-483B-8C99-BEA8DCA868E6}" name="Senaryo 9 TypeScript" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="30" xr3:uid="{0E2B207C-65E5-48AF-9BE3-9C2C89F6A0F2}" name="Senaryo 10 CSharp" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="31" xr3:uid="{7777D625-BCA3-480C-A71E-DE21E1A2A3E1}" name="Senaryo 10 Python" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="32" xr3:uid="{D0879089-EF33-42D0-BD64-E4D0EB4E6B9A}" name="Senaryo 10 TypeScript" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="33" xr3:uid="{4CA2E71B-90CF-4ADF-BA7A-2E4C3ED6D53D}" name="Total" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{5DBBEE5F-10E9-420D-8145-D7C4AE394D90}" name="Senaryo 1 CSharp" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="163" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{D01828B2-10AE-454E-9346-9631728D8F85}" name="Senaryo 1 Python" totalsRowFunction="sum" dataDxfId="162" totalsRowDxfId="161" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{154F2D2C-1A28-493F-A547-3F6362C45315}" name="Senaryo 1 TypeScript" totalsRowFunction="sum" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{5E1CE77B-BADB-4D61-B035-13A5E168B429}" name="Senaryo 2 CSharp" totalsRowFunction="sum" dataDxfId="158" totalsRowDxfId="157" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{0D8A2999-56EE-4820-B7EA-57A856DE61A2}" name="Senaryo 2 Python" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="155" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{644F7313-F022-4192-B384-867EA0EB2BD8}" name="Senaryo 2 TypeScript" totalsRowFunction="sum" dataDxfId="154" totalsRowDxfId="153" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{4727F928-F4B3-4621-8515-A69B649118FF}" name="Senaryo 3 CSharp" totalsRowFunction="sum" dataDxfId="152" totalsRowDxfId="151" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{2632B23A-4015-4C9C-B989-F86B5A9133CD}" name="Senaryo 3 Python" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{33DB39AE-3D1F-4A8D-93CE-0DDE5AD3A4FD}" name="Senaryo 3 TypeScript" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{CAE73F09-7165-4F81-8429-A8705F63424E}" name="Senaryo 4 CSharp" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{8F1295CF-2223-47E4-A825-C16C73255581}" name="Senaryo 4 Python" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{216BE4D0-480E-47E4-B053-61E942B45F3C}" name="Senaryo 4 TypeScript" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="15" xr3:uid="{2F6591D1-1890-4DB8-9579-7F2FBE9CF215}" name="Senaryo 5 CSharp" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="16" xr3:uid="{303B2371-15E9-4D62-B0AD-0041E4D1BF8F}" name="Senaryo 5 Python" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{76EC7216-AAAE-4FB7-8AB9-B8B581090BE7}" name="Senaryo 5 TypeScript" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="18" xr3:uid="{313282F2-5FBF-4AAD-B876-C8BAE071FCFF}" name="Senaryo 6 CSharp" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="19" xr3:uid="{34A93617-D9B6-4DC3-A79C-88211B864488}" name="Senaryo 6 Python" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="20" xr3:uid="{F6BFD7DC-D08D-4B1F-9C25-50703CF6387B}" name="Senaryo 6 TypeScript" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="21" xr3:uid="{F0A4F85B-4694-41D9-AFE6-8229F20010A7}" name="Senaryo 7 CSharp" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="22" xr3:uid="{0F055718-AF6F-4571-BCDD-A76428DBE19C}" name="Senaryo 7 Python" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="23" xr3:uid="{2836C9A2-BA4B-434E-9085-711BF04E821A}" name="Senaryo 7 TypeScript" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="24" xr3:uid="{20B3BAF8-63D7-467B-A575-3C0398474301}" name="Senaryo 8 CSharp" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="25" xr3:uid="{5B3CFE21-2B51-49DD-A5D8-3C814537ABF1}" name="Senaryo 8 Python" totalsRowFunction="sum" dataDxfId="120" totalsRowDxfId="119" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="26" xr3:uid="{B48691A8-E21D-4C86-8780-3A006F5403F7}" name="Senaryo 8 TypeScript" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="27" xr3:uid="{1C1A41F5-4799-4152-9C01-BFA54E8194B1}" name="Senaryo 9 CSharp" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="28" xr3:uid="{01DA7305-2CBA-40D9-99D2-1CF7D514950D}" name="Senaryo 9 Python" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="29" xr3:uid="{FEF8B27E-DF22-483B-8C99-BEA8DCA868E6}" name="Senaryo 9 TypeScript" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="30" xr3:uid="{0E2B207C-65E5-48AF-9BE3-9C2C89F6A0F2}" name="Senaryo 10 CSharp" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="31" xr3:uid="{7777D625-BCA3-480C-A71E-DE21E1A2A3E1}" name="Senaryo 10 Python" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="32" xr3:uid="{D0879089-EF33-42D0-BD64-E4D0EB4E6B9A}" name="Senaryo 10 TypeScript" totalsRowFunction="sum" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="33" xr3:uid="{4CA2E71B-90CF-4ADF-BA7A-2E4C3ED6D53D}" name="Total" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Comma" totalsRowCellStyle="Comma">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Senaryo 1 CSharp]:[Senaryo 10 TypeScript]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7109,17 +8513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8DD061-BDCC-4737-8221-4D09BBEEDAB9}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="G28" sqref="A2:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8328,64 +9732,347 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7291</v>
+      </c>
+      <c r="K35" s="15">
+        <v>45387</v>
+      </c>
+      <c r="L35" s="15">
+        <v>7898</v>
+      </c>
+      <c r="M35" s="15">
+        <v>46371</v>
+      </c>
+      <c r="N35" s="15">
+        <v>10869</v>
+      </c>
+      <c r="O35" s="14">
+        <v>117816</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="16">
+        <v>6.1884633666055545E-2</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0.38523630067223469</v>
+      </c>
+      <c r="L36" s="16">
+        <v>6.7036735248183613E-2</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0.3935883071908739</v>
+      </c>
+      <c r="N36" s="16">
+        <v>9.2254023222652276E-2</v>
+      </c>
+      <c r="O36" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B3:F27">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B3:F27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B3:F27">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G3:G27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="G3:G27">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="G3:G27">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B28:F28">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B28:F28">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B28:F28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="J3:N27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="J3:N27">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="J3:N27">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="O3:O27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="O3:O27">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="O3:O27">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:N36">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:N36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:N36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:N35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B3:F27">
+  <conditionalFormatting sqref="J35:N35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B28:F28">
+  <conditionalFormatting sqref="J35:N35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="O3:O27">
+  <conditionalFormatting pivot="1" sqref="J28:N28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="J3:N27">
+  <conditionalFormatting pivot="1" sqref="J28:N28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCC4C5"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFADDDBA"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8395,9 +10082,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFADDDBA"/>
+        <color rgb="FFFFF3B7"/>
+        <color rgb="FFFCC4C5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8409,7 +10096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBDE15A-3291-4667-842E-904BEFD28F87}">
   <dimension ref="A1:AG127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W121" sqref="W121"/>
     </sheetView>
   </sheetViews>
